--- a/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-event-report.xlsx
+++ b/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-event-report.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T09:03:55+00:00</t>
+    <t>2025-12-18T10:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-event-report.xlsx
+++ b/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-event-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T10:47:46+00:00</t>
+    <t>2025-12-18T16:17:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
